--- a/document/项目管理/后端开发计划-侯添久.xlsx
+++ b/document/项目管理/后端开发计划-侯添久.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BC0FC-7FA4-294E-BDAF-0C2F56C8CC5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BD094-8BF9-3D49-9324-13BD22901A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="后端开发计划表" sheetId="6" r:id="rId1"/>
@@ -499,13 +499,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D8" sqref="D8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
   </cols>
